--- a/data/estate/房地产中观数据库.xlsx
+++ b/data/estate/房地产中观数据库.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/estate/房地产中观数据库.xlsx
+++ b/data/estate/房地产中观数据库.xlsx
@@ -84,179 +84,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>房地产新开工面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产施工面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产竣工面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京商品房库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海商品房库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳商品房库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产投资总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产开发投资资金来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地购置费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲土运输机械产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载货汽车产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板玻璃产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0049591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073489</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0006067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0055579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0005963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2732435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2704614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0005734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2707425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2700454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0029657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0001383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0001385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0027705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0027713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0028209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0028205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>全国商品房销售均价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产新开工面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产施工面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产竣工面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京商品房库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海商品房库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳商品房库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产投资总额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产开发投资资金来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地购置费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铲土运输机械产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>载货汽车产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平板玻璃产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0049591</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073363</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073489</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0006067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0055579</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0005963</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2732435</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2704614</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0005734</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2707425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2700454</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073293</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073297</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0029657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073244</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0073287</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0001383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0001385</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0027705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0027713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0028209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0028205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +609,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -711,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -744,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -774,10 +774,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
